--- a/data/georgia_census/guria/lanchxuti/average_wages.xlsx
+++ b/data/georgia_census/guria/lanchxuti/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C8BDDD-D987-4397-9691-ADBA187F8E5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BDF8956-4635-4C66-9C2C-E02E5D4F4E1D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D2EC539-E0B4-46D2-9FE2-8922B99ECD68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{256EA9F9-EE7C-4B52-95C1-49801328979A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10BE7CE4-E819-4BA6-96FD-92EE4ED274A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0846B536-0E0D-4AFE-8E58-4D0E2C200422}"/>
 </file>